--- a/projects/web-scrappinnng/jobdata.xlsx
+++ b/projects/web-scrappinnng/jobdata.xlsx
@@ -1,41 +1,238 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashur\Desktop\FSD\MERN-Learning\BACKEND\projects\web-scrappinnng\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+  </bookViews>
   <sheets>
     <sheet name="jobdata.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="69">
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>company name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Job Type</t>
+  </si>
+  <si>
+    <t>Posted Date</t>
+  </si>
+  <si>
+    <t>Job Description</t>
+  </si>
+  <si>
+    <t>Associate Manager ERP Package Applications</t>
+  </si>
+  <si>
+    <t>DXC Technologies</t>
+  </si>
+  <si>
+    <t>Hyderabad/Secunderabad</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Posted today</t>
+  </si>
+  <si>
+    <t>The ServiceNow Technical Architect role is one of the core components in all our engagements. The ideal candidate has a proven track record in archite...</t>
+  </si>
+  <si>
+    <t>WD Integration Consultant</t>
+  </si>
+  <si>
+    <t>Bengaluru / Bangalore</t>
+  </si>
+  <si>
+    <t>DescriptionDXC Technology India is seeking great talent to join the Global Workday Practice. The Workday Consultant will act independently and advise ...</t>
+  </si>
+  <si>
+    <t>Sr Analyst I ERP Package Applications</t>
+  </si>
+  <si>
+    <t>Job Profile SummaryThe Senior level Sr. Business Analyst works effectively across the entire software development life cycle. This includes requiremen...</t>
+  </si>
+  <si>
+    <t>UEM-10-Sr Analyst I Infrastructure Services</t>
+  </si>
+  <si>
+    <t>:ResponsibilitiesExperience in troubleshooting issues related to Intune Modern Management, Microsoft Endpoint Management, MAM &amp;amp; MAM-WE.Knowled...</t>
+  </si>
+  <si>
+    <t>AP - Sr Analyst II Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Essential Job Functions:Background in IT, Computer Science Engineering, Business, or a related discipline or equivalent work experience.Strong trouble...</t>
+  </si>
+  <si>
+    <t>Senior Platform Engineer</t>
+  </si>
+  <si>
+    <t>autodesk india pvt ltd</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Job Requisition ID25WD86261Position OverviewWe are seeking a highly skilled and experienced Senior Platform Engineer to join our Data Platform team. T...</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer (AWS)</t>
+  </si>
+  <si>
+    <t>Job Requisition ID # 25WD87656Position OverviewAre you excited about solving complex technical challenges and building scalable, highly available serv...</t>
+  </si>
+  <si>
+    <t>Senior Business Analyst</t>
+  </si>
+  <si>
+    <t>Job Requisition ID25WD87922Position OverviewWe are seeking a highly motivated Senior Business Analyst with strong Business Intelligence (BI) skills to...</t>
+  </si>
+  <si>
+    <t>Senior Software Developer in Test</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Job Requisition ID # 25WD84951Position OverviewAutodesk is looking for an experienced and results-driven Senior SQA Engineer for ACC product based in ...</t>
+  </si>
+  <si>
+    <t>Technical Support Specialist - AutoCAD Map 3D</t>
+  </si>
+  <si>
+    <t>Job Requisition ID25WD87962Position OverviewAutodesk Customer Technical Success is looking for highly motivated trusted advisor to help our customers ...</t>
+  </si>
+  <si>
+    <t>Computer Scientist - II</t>
+  </si>
+  <si>
+    <t>Adobe Systems Ltd</t>
+  </si>
+  <si>
+    <t>Noida/Greater Noida</t>
+  </si>
+  <si>
+    <t>Our CompanyChanging the world through digital experiences is what Adobes all about. We give everyonefrom emerging artists to global brandseverything t...</t>
+  </si>
+  <si>
+    <t>Infogain looking for Data Science Architect (Standard), Gurugram, India 12-14 Years Experience in Data Science</t>
+  </si>
+  <si>
+    <t>Infogain Corporation</t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>: Data Science Architect (Standard)Location: Gurugram, IndiaPosted on: April 25, 2025Share on: LinkedIn | Twitter | FacebookROLES &amp;amp; RESPONSIBI...</t>
+  </si>
+  <si>
+    <t>Alternance Bac   3/4/5 - System Engineer / Application support specialist - H/F</t>
+  </si>
+  <si>
+    <t>volvo group india pvt ltd</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Le transport est au cur de notre socit. Pourquoi ne pas mettre votre comptence au service de llaboration des solutions de transport et infrastructure ...</t>
+  </si>
+  <si>
+    <t>Senior Solution Architect</t>
+  </si>
+  <si>
+    <t>Transport is at the core of modern society. Imagine using your expertise to shape sustainable transport and infrastructure solutions for the future? I...</t>
+  </si>
+  <si>
+    <t>SAP MM Senior Solution Consultant</t>
+  </si>
+  <si>
+    <t>Service Owner Monitoring</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Senior Digital Product Manager</t>
+  </si>
+  <si>
+    <t>Global Banking &amp; Markets - IRP Technology - Vice President - Bengaluru</t>
+  </si>
+  <si>
+    <t>Goldman Sachs Services Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Who We AreAt Goldman Sachs, we connect people, capital and ideas to help solve problems for our clients. We are a leading global financial services fi...</t>
+  </si>
+  <si>
+    <t>Global Banking &amp; Markets - Prime Services Risk Technology - Analyst - Bengaluru</t>
+  </si>
+  <si>
+    <t>Global Banking &amp; Markets Operations - Client Onboarding &amp; Configuration - Senior Analyst - Bengaluru</t>
+  </si>
+  <si>
+    <t>GLOBAL BANKING &amp;amp; MARKETSWe make markets in and clear client transactions on major stock, options and futures exchanges worldwide. Through our ...</t>
+  </si>
+  <si>
+    <t>Asset &amp; Wealth Management, QIS, Anlayst, Bengaluru</t>
+  </si>
+  <si>
+    <t>At Goldman Sachs, we connect people, capital and ideas to help solve problems for our clients. We are a leading global financial services firm providi...</t>
+  </si>
+  <si>
+    <t>Web Developer - EQ Client Analytics Engineering - GBM - Analyst</t>
+  </si>
+  <si>
+    <t>The Client Analytics team is a front-office, business facing team responsible for the development of analytical metrics, applications, and insights fo...</t>
+  </si>
+  <si>
+    <t>Risk-Hyderabad-Analyst-Software Engineering</t>
+  </si>
+  <si>
+    <t>Analytics &amp;amp; Reporting (A&amp;amp;R) is a group within Risk Engineering in the Risk Division of Goldman Sachs. The group ensures the firms seni...</t>
+  </si>
+  <si>
+    <t>Asset &amp; Wealth Management - Backend Engineer - Associate - Dallas</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>What We DoAt Goldman Sachs, our Engineers don't just make things - we make things possible. Change the world by connecting people and capital with ide...</t>
+  </si>
+  <si>
+    <t>Asset &amp; Wealth Management, Real Estate, Debt Capital Markets, Analyst, Dallas</t>
+  </si>
+  <si>
+    <t>Asset Management provides institutional and individual investors with investment and advisory solutions, with strategies spanning asset classes, indus...</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +269,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,304 +601,544 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="23.59765625" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="64.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>company name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>company post</v>
-      </c>
-      <c r="C1" t="str">
-        <v>pay salary</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Navyah Immigration Services Private Limited</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Computer Network and Systems Engineer</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Navyah Immigration Services Private Limited</v>
-      </c>
-      <c r="B3" t="str">
-        <v>IT Project Managers</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Navyah Immigration Services Private Limited</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Database analysts and  administrators</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Navyah Immigration Services Private Limited</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Software and Applications Programmers</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Navyah Immigration Services Private Limited</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Senior Software Testers</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Navyah Immigration Services Private Limited</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Senior SAP Associates</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Navyah Immigration Services Private Limited</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Web Designers and Developers</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Navyah Immigration Services Private Limited</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Graphic Designers</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Navyah Immigration Services Private Limited</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Business Analysts and Consultants</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="11" xml:space="preserve">
-      <c r="A11" t="str">
-        <v>DREAM BRIDGE IMMIGRATIONS</v>
-      </c>
-      <c r="B11" t="str">
-        <v>"IT Service Desk Analyst"</v>
-      </c>
-      <c r="C11" t="str" xml:space="preserve">
-        <v xml:space="preserve">29
-          		-
-          		96 
-          		Lakhs</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>forcepoint</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Software Engineer II- Golang</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Pall India Pvt Ltd</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Logistics Coordinator &amp; MIS Analyst</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Goldman Sachs Services Pvt Ltd</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Controllers-Bengaluru-Vice President-Quantitative Engineering</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>autodesk india pvt ltd</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Principal Software Engineer - Cloud Services</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Goldman Sachs Services Pvt Ltd</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Engineering (EC) - Software Engineer - Analyst - Bengaluru / Hyderabad</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>autodesk india pvt ltd</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Software Development Engineer - Cloud Services</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Goldman Sachs Services Pvt Ltd</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Wealth Management-Salt Lake City-Vice President-Software Engineering</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>autodesk india pvt ltd</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Senior Software Engineer</v>
-      </c>
-      <c r="C19" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Binance</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Binance Accelerator Program - Backend Engineer (Java), Risk</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>Future First</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Senior Software Engineer - Futures First</v>
-      </c>
-      <c r="C21" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>origin hr</v>
-      </c>
-      <c r="B22" t="str">
-        <v>Senior Data Engineer</v>
-      </c>
-      <c r="C22" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>TE Connectivity Ltd</v>
-      </c>
-      <c r="B23" t="str">
-        <v>SOFTWARE TEST AUTOMATION ENGINEER I - TOSCA Job Details | TE Connectivity</v>
-      </c>
-      <c r="C23" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Parallel Wireless</v>
-      </c>
-      <c r="B24" t="str">
-        <v>System Integration Manager Kfar Saba 301-Engineering  301-Engineering / Full Time / Hybrid</v>
-      </c>
-      <c r="C24" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Yash Technologies Pvt Ltd</v>
-      </c>
-      <c r="B25" t="str">
-        <v>Associate Lead Consultant - SAP ABAP Job Job Details | Yash Technologies</v>
-      </c>
-      <c r="C25" t="str">
-        <v>Not disclosed</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>Nvidia Graphics Pvt Ltd</v>
-      </c>
-      <c r="B26" t="str">
-        <v>Deep Learning Intern - Fall 2025</v>
-      </c>
-      <c r="C26" t="str">
-        <v>Not disclosed</v>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C26"/>
+    <ignoredError sqref="A1:F26" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>